--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2688590.154116652</v>
+        <v>2686092.418766202</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.9385639094162</v>
@@ -710,22 +710,22 @@
         <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>49.68557297806482</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>18.94669063242728</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>143.5644081416961</v>
       </c>
       <c r="G3" t="n">
         <v>136.0785727665282</v>
@@ -792,7 +792,7 @@
         <v>195.0661150959129</v>
       </c>
       <c r="U3" t="n">
-        <v>224.3533578031898</v>
+        <v>225.8581620548773</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>124.0914351275314</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>7.705292400197881</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>100.0766250924178</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>173.7292369192074</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>132.2815965675155</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>185.8476702496226</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>309.5308572632464</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>231.488491028369</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>232.6900396322376</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764734</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>127.1477159870288</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9410961977583</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.2893995353468</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>118.4817021252624</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>121.8000472740347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>68.11883945937008</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3986,13 +3986,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444133</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1705.568369575493</v>
+        <v>1284.702229877256</v>
       </c>
       <c r="C2" t="n">
-        <v>1705.568369575493</v>
+        <v>915.7397129368445</v>
       </c>
       <c r="D2" t="n">
-        <v>1705.568369575493</v>
+        <v>915.7397129368445</v>
       </c>
       <c r="E2" t="n">
-        <v>1319.780116977249</v>
+        <v>915.7397129368445</v>
       </c>
       <c r="F2" t="n">
         <v>908.7942121876411</v>
@@ -4328,25 +4328,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088521</v>
+        <v>239.5208398512382</v>
       </c>
       <c r="K2" t="n">
-        <v>151.950669111822</v>
+        <v>640.2602765776281</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181045</v>
+        <v>980.9375709075257</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639727</v>
+        <v>1608.890114829148</v>
       </c>
       <c r="N2" t="n">
-        <v>1952.814022680361</v>
+        <v>1799.398134701918</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291969</v>
+        <v>1965.954194448895</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016428</v>
+        <v>2392.185658263122</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4358,22 +4358,22 @@
         <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.958036347466</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="U2" t="n">
-        <v>2476.958036347466</v>
+        <v>2008.368946827793</v>
       </c>
       <c r="V2" t="n">
-        <v>2145.895149003895</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="W2" t="n">
-        <v>2095.707701551305</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="X2" t="n">
-        <v>2095.707701551305</v>
+        <v>1303.840301223142</v>
       </c>
       <c r="Y2" t="n">
-        <v>1705.568369575493</v>
+        <v>1284.702229877256</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
         <v>337.4909562725568</v>
@@ -4407,16 +4407,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>170.2762045496335</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>497.8519368624348</v>
+        <v>118.4560672099614</v>
       </c>
       <c r="L3" t="n">
-        <v>999.722330600029</v>
+        <v>608.5497723065909</v>
       </c>
       <c r="M3" t="n">
-        <v>1241.641187275395</v>
+        <v>785.1400586289795</v>
       </c>
       <c r="N3" t="n">
         <v>1437.313937931689</v>
@@ -4440,19 +4440,19 @@
         <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.867009144004</v>
+        <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.714900912262</v>
+        <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.47754418406</v>
+        <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978527</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.865745213574</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.614013122006</v>
+        <v>390.2537615266273</v>
       </c>
       <c r="C4" t="n">
-        <v>200.614013122006</v>
+        <v>221.3175785987204</v>
       </c>
       <c r="D4" t="n">
-        <v>200.614013122006</v>
+        <v>221.3175785987204</v>
       </c>
       <c r="E4" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3175785987204</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3175785987204</v>
       </c>
       <c r="G4" t="n">
         <v>52.70091953961285</v>
@@ -4510,28 +4510,28 @@
         <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221469</v>
+        <v>912.8607263634885</v>
       </c>
       <c r="S4" t="n">
-        <v>836.1686462697003</v>
+        <v>912.8607263634885</v>
       </c>
       <c r="T4" t="n">
-        <v>710.8237623024968</v>
+        <v>687.1895968975741</v>
       </c>
       <c r="U4" t="n">
-        <v>710.8237623024968</v>
+        <v>398.0368851631908</v>
       </c>
       <c r="V4" t="n">
-        <v>710.8237623024968</v>
+        <v>390.2537615266273</v>
       </c>
       <c r="W4" t="n">
-        <v>421.4065922655361</v>
+        <v>390.2537615266273</v>
       </c>
       <c r="X4" t="n">
-        <v>421.4065922655361</v>
+        <v>390.2537615266273</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.614013122006</v>
+        <v>390.2537615266273</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>644.7944665627724</v>
+        <v>1272.915986486519</v>
       </c>
       <c r="C5" t="n">
-        <v>644.7944665627724</v>
+        <v>1272.915986486519</v>
       </c>
       <c r="D5" t="n">
-        <v>286.5287679560219</v>
+        <v>914.6502878797686</v>
       </c>
       <c r="E5" t="n">
-        <v>286.5287679560219</v>
+        <v>914.6502878797686</v>
       </c>
       <c r="F5" t="n">
-        <v>185.4412678626705</v>
+        <v>503.664383090161</v>
       </c>
       <c r="G5" t="n">
-        <v>172.393890139502</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H5" t="n">
         <v>172.393890139502</v>
@@ -4565,22 +4565,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>171.8788747909445</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>575.34598781099</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>1128.159246057189</v>
+        <v>616.7309383942948</v>
       </c>
       <c r="M5" t="n">
-        <v>1314.858658882597</v>
+        <v>1248.448749377606</v>
       </c>
       <c r="N5" t="n">
-        <v>1942.166326942443</v>
+        <v>1875.756417437453</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>2422.91762220453</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4598,19 +4598,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.7680521339</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.999396863786</v>
+        <v>2049.655158526452</v>
       </c>
       <c r="X5" t="n">
-        <v>1421.533638602706</v>
+        <v>2049.655158526452</v>
       </c>
       <c r="Y5" t="n">
-        <v>1031.394306626894</v>
+        <v>1659.515826550641</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>638.0181737180123</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>817.5155100726172</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N6" t="n">
         <v>1430.928743686615</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347.5039606199163</v>
+        <v>186.3186938502346</v>
       </c>
       <c r="C7" t="n">
-        <v>347.5039606199163</v>
+        <v>186.3186938502346</v>
       </c>
       <c r="D7" t="n">
-        <v>347.5039606199163</v>
+        <v>186.3186938502346</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="V7" t="n">
-        <v>864.9106815548944</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="W7" t="n">
-        <v>575.4935115179337</v>
+        <v>407.1112729937647</v>
       </c>
       <c r="X7" t="n">
-        <v>347.5039606199163</v>
+        <v>407.1112729937647</v>
       </c>
       <c r="Y7" t="n">
-        <v>347.5039606199163</v>
+        <v>186.3186938502346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2248.446136916521</v>
+        <v>834.9999006591394</v>
       </c>
       <c r="C8" t="n">
-        <v>1879.483619976109</v>
+        <v>834.9999006591394</v>
       </c>
       <c r="D8" t="n">
-        <v>1521.217921369358</v>
+        <v>476.7342020523889</v>
       </c>
       <c r="E8" t="n">
-        <v>1135.429668771114</v>
+        <v>476.7342020523889</v>
       </c>
       <c r="F8" t="n">
-        <v>724.4437639815067</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K8" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L8" t="n">
-        <v>1032.36013938198</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207387</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.39376509937</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W8" t="n">
-        <v>2635.045976980643</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.045976980643</v>
+        <v>1537.796664213988</v>
       </c>
       <c r="Y8" t="n">
-        <v>2635.045976980643</v>
+        <v>1147.657332238176</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1293238454227</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L9" t="n">
-        <v>886.4908637115414</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M9" t="n">
-        <v>1527.036213178646</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N9" t="n">
-        <v>1820.852439770578</v>
+        <v>1582.531622045753</v>
       </c>
       <c r="O9" t="n">
-        <v>1980.364752439338</v>
+        <v>2131.967630798476</v>
       </c>
       <c r="P9" t="n">
-        <v>2404.332520920175</v>
+        <v>2555.935399279313</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5567829601589</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C10" t="n">
-        <v>497.620600032252</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5039606199163</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
         <v>52.70091953961285</v>
@@ -4993,19 +4993,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998958</v>
+        <v>817.5951569259904</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.635600998958</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.635600998958</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.635600998958</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.2052477903986</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>228.9331431646413</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358619</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.1060525954244</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1559.953817504172</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1270.536647467212</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1042.547096569194</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>821.7545174256642</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5750,10 +5750,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.8158034133954</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,10 +5975,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,13 +6306,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6552,10 +6552,10 @@
         <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6598,16 +6598,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7011,16 +7011,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,37 +7424,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,25 +7546,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362682</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,19 +7719,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>206.8005678066272</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>379.1481554188186</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>7.3281211888728</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>358.9447002115758</v>
       </c>
       <c r="M3" t="n">
-        <v>65.98845490199773</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>461.1122511579958</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>98.93303561408925</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>67.08071667170768</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="N6" t="n">
-        <v>418.9459514760943</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>250.7308605730627</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>98.93303561408928</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8541,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>96.12069185784534</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>56.94306717106312</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8930,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.115261047703417e-12</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.77344636500085e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>16.31315520054554</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>124.9899273367992</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.6435571543365</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.54258064659049</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>77.24602870709352</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.81301072096153</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>45.44677382459312</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>184.0188038644579</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772888.709355629</v>
+        <v>772888.7093556292</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.415891427</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765846</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707371</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.424496707331</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707383</v>
-      </c>
       <c r="I4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707395</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707371</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707376</v>
+        <v>6897.424496707363</v>
       </c>
       <c r="M4" t="n">
         <v>6897.424496707368</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707363</v>
+        <v>6897.424496707419</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707379</v>
+        <v>6897.424496707421</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26522,46 @@
         <v>-408014.7333618836</v>
       </c>
       <c r="C6" t="n">
-        <v>375417.2786238326</v>
+        <v>375417.2786238327</v>
       </c>
       <c r="D6" t="n">
-        <v>380323.5256323324</v>
+        <v>380323.5256323322</v>
       </c>
       <c r="E6" t="n">
-        <v>-237991.021845194</v>
+        <v>-238025.7597706295</v>
       </c>
       <c r="F6" t="n">
-        <v>537697.3254313905</v>
+        <v>537662.5875059552</v>
       </c>
       <c r="G6" t="n">
-        <v>537697.3254313907</v>
+        <v>537662.5875059548</v>
       </c>
       <c r="H6" t="n">
-        <v>537697.3254313908</v>
+        <v>537662.5875059548</v>
       </c>
       <c r="I6" t="n">
-        <v>537697.3254313907</v>
+        <v>537662.587505955</v>
       </c>
       <c r="J6" t="n">
-        <v>365336.3330311098</v>
+        <v>365301.595105674</v>
       </c>
       <c r="K6" t="n">
-        <v>537697.3254313903</v>
+        <v>537662.5875059546</v>
       </c>
       <c r="L6" t="n">
-        <v>537697.3254313903</v>
+        <v>537662.5875059552</v>
       </c>
       <c r="M6" t="n">
-        <v>409619.7286156768</v>
+        <v>409584.9906902409</v>
       </c>
       <c r="N6" t="n">
-        <v>537697.3254313904</v>
+        <v>537662.5875059549</v>
       </c>
       <c r="O6" t="n">
-        <v>537697.3254313907</v>
+        <v>537662.5875059548</v>
       </c>
       <c r="P6" t="n">
-        <v>537697.3254313904</v>
+        <v>537662.587505955</v>
       </c>
     </row>
   </sheetData>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.156519019379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>299.5553957393482</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>367.2912480236263</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.504804251687773</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.504804251687517</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7984799768616</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>99.32298304372384</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>244.4323509236301</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>306.7994206492936</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>175.5117317982056</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>14.15236607905368</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>66.28997307420536</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>73.20298440023413</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>181.4284129175678</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28065,19 +28065,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>53.57061502585941</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30706,13 +30706,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>263.3189197138075</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33026,16 +33026,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33272,13 +33272,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33506,13 +33506,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,16 +34445,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168925</v>
+        <v>188.706990213763</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347154</v>
+        <v>404.7873098246363</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649318</v>
+        <v>344.1184791211086</v>
       </c>
       <c r="M2" t="n">
         <v>634.29549891073</v>
       </c>
       <c r="N2" t="n">
-        <v>629.779267717812</v>
+        <v>192.4323433058278</v>
       </c>
       <c r="O2" t="n">
-        <v>547.3865996076844</v>
+        <v>168.2384441888658</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641002</v>
+        <v>430.5368321355829</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011593</v>
+        <v>245.3134532500206</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>118.762914151536</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937387</v>
+        <v>66.41934108116013</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541354</v>
+        <v>495.044146562252</v>
       </c>
       <c r="M3" t="n">
-        <v>244.3624814902691</v>
+        <v>178.3740265882714</v>
       </c>
       <c r="N3" t="n">
-        <v>197.6492430871648</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
         <v>552.2285252131348</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>120.3817729811431</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
@@ -34951,7 +34951,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>178.9335704591082</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>349.2738770933425</v>
       </c>
       <c r="N6" t="n">
-        <v>619.6093268828263</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>391.4668765743286</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>287.518301094299</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35261,16 +35261,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>296.7840672645773</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>79.90967444578735</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>136.4812930471408</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,13 +36920,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37087,10 +37087,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
